--- a/codeLibrary/R/R/airlineData/Kabul flights.xlsx
+++ b/codeLibrary/R/R/airlineData/Kabul flights.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{76D261BF-51BF-CC44-A684-4469F5689287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AB865A-2BC5-154F-8EC4-7F7578C02745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Chart</t>
   </si>
@@ -241,12 +241,81 @@
   </si>
   <si>
     <t>2021-09-02</t>
+  </si>
+  <si>
+    <t>2021-10-03</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>2021-10-07</t>
+  </si>
+  <si>
+    <t>2021-10-08</t>
+  </si>
+  <si>
+    <t>2021-10-09</t>
+  </si>
+  <si>
+    <t>2021-10-10</t>
+  </si>
+  <si>
+    <t>2021-10-11</t>
+  </si>
+  <si>
+    <t>2021-10-12</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>2021-10-14</t>
+  </si>
+  <si>
+    <t>2021-10-15</t>
+  </si>
+  <si>
+    <t>2021-10-16</t>
+  </si>
+  <si>
+    <t>2021-10-17</t>
+  </si>
+  <si>
+    <t>2021-10-18</t>
+  </si>
+  <si>
+    <t>2021-10-19</t>
+  </si>
+  <si>
+    <t>2021-10-20</t>
+  </si>
+  <si>
+    <t>2021-10-21</t>
+  </si>
+  <si>
+    <t>2021-10-22</t>
+  </si>
+  <si>
+    <t>2021-10-23</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>2021-10-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -754,11 +823,11 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1114,27 +1183,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1145,7 +1214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1155,12 +1224,12 @@
       <c r="C3" s="2">
         <v>13</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <f>C3/B3</f>
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1170,12 +1239,12 @@
       <c r="C4" s="2">
         <v>12</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D67" si="0">C4/B4</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1185,12 +1254,12 @@
       <c r="C5" s="2">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1200,12 +1269,12 @@
       <c r="C6" s="2">
         <v>11</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1215,12 +1284,12 @@
       <c r="C7" s="2">
         <v>17</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>0.77272727272727271</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1230,12 +1299,12 @@
       <c r="C8" s="2">
         <v>14</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1245,12 +1314,12 @@
       <c r="C9" s="2">
         <v>14</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1260,12 +1329,12 @@
       <c r="C10" s="2">
         <v>15</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1275,12 +1344,12 @@
       <c r="C11" s="2">
         <v>14</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1290,12 +1359,12 @@
       <c r="C12" s="2">
         <v>11</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>0.47826086956521741</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1305,12 +1374,12 @@
       <c r="C13" s="2">
         <v>13</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1320,12 +1389,12 @@
       <c r="C14" s="2">
         <v>15</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1335,12 +1404,12 @@
       <c r="C15" s="2">
         <v>16</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,12 +1419,12 @@
       <c r="C16" s="2">
         <v>13</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1365,12 +1434,12 @@
       <c r="C17" s="2">
         <v>18</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1380,12 +1449,12 @@
       <c r="C18" s="2">
         <v>10</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1395,12 +1464,12 @@
       <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1410,12 +1479,12 @@
       <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1425,12 +1494,12 @@
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1440,12 +1509,12 @@
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1455,12 +1524,12 @@
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1470,12 +1539,12 @@
       <c r="C24" s="2">
         <v>0</v>
       </c>
-      <c r="D24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1485,12 +1554,12 @@
       <c r="C25" s="2">
         <v>2</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1500,12 +1569,12 @@
       <c r="C26" s="2">
         <v>0</v>
       </c>
-      <c r="D26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1515,12 +1584,12 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1530,12 +1599,12 @@
       <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="D28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1545,12 +1614,12 @@
       <c r="C29" s="2">
         <v>0</v>
       </c>
-      <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1560,12 +1629,12 @@
       <c r="C30" s="2">
         <v>0</v>
       </c>
-      <c r="D30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1575,12 +1644,12 @@
       <c r="C31" s="2">
         <v>0</v>
       </c>
-      <c r="D31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1590,12 +1659,12 @@
       <c r="C32" s="2">
         <v>0</v>
       </c>
-      <c r="D32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1605,12 +1674,12 @@
       <c r="C33" s="2">
         <v>0</v>
       </c>
-      <c r="D33" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -1620,12 +1689,12 @@
       <c r="C34" s="2">
         <v>0</v>
       </c>
-      <c r="D34" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1635,12 +1704,12 @@
       <c r="C35" s="2">
         <v>0</v>
       </c>
-      <c r="D35" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
@@ -1650,12 +1719,12 @@
       <c r="C36" s="2">
         <v>0</v>
       </c>
-      <c r="D36" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -1665,12 +1734,12 @@
       <c r="C37" s="2">
         <v>0</v>
       </c>
-      <c r="D37" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
@@ -1680,12 +1749,12 @@
       <c r="C38" s="2">
         <v>0</v>
       </c>
-      <c r="D38" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -1695,12 +1764,12 @@
       <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -1710,12 +1779,12 @@
       <c r="C40" s="2">
         <v>0</v>
       </c>
-      <c r="D40" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -1725,12 +1794,12 @@
       <c r="C41" s="2">
         <v>0</v>
       </c>
-      <c r="D41" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -1740,12 +1809,12 @@
       <c r="C42" s="2">
         <v>1</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="3">
         <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
@@ -1755,12 +1824,12 @@
       <c r="C43" s="2">
         <v>0</v>
       </c>
-      <c r="D43" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,12 +1839,12 @@
       <c r="C44" s="2">
         <v>0</v>
       </c>
-      <c r="D44" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -1785,12 +1854,12 @@
       <c r="C45" s="2">
         <v>1</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="3">
         <f t="shared" si="0"/>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
@@ -1800,12 +1869,12 @@
       <c r="C46" s="2">
         <v>0</v>
       </c>
-      <c r="D46" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D46" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -1815,12 +1884,12 @@
       <c r="C47" s="2">
         <v>1</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="3">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
@@ -1830,12 +1899,12 @@
       <c r="C48" s="2">
         <v>1</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -1845,12 +1914,12 @@
       <c r="C49" s="2">
         <v>1</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="3">
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -1860,12 +1929,12 @@
       <c r="C50" s="2">
         <v>1</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="3">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -1875,12 +1944,12 @@
       <c r="C51" s="2">
         <v>0</v>
       </c>
-      <c r="D51" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
@@ -1890,12 +1959,12 @@
       <c r="C52" s="2">
         <v>1</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="3">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -1905,12 +1974,12 @@
       <c r="C53" s="2">
         <v>1</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="3">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -1920,12 +1989,12 @@
       <c r="C54" s="2">
         <v>2</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="3">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -1935,12 +2004,12 @@
       <c r="C55" s="2">
         <v>0</v>
       </c>
-      <c r="D55" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -1950,12 +2019,12 @@
       <c r="C56" s="2">
         <v>0</v>
       </c>
-      <c r="D56" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -1965,12 +2034,12 @@
       <c r="C57" s="2">
         <v>1</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="3">
         <f t="shared" si="0"/>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -1980,12 +2049,12 @@
       <c r="C58" s="2">
         <v>1</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="3">
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -1995,12 +2064,12 @@
       <c r="C59" s="2">
         <v>1</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="3">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -2010,12 +2079,12 @@
       <c r="C60" s="2">
         <v>2</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="3">
         <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
@@ -2025,114 +2094,459 @@
       <c r="C61" s="2">
         <v>0</v>
       </c>
-      <c r="D61" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B62" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
       </c>
-      <c r="D62" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D62" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B63" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
       </c>
-      <c r="D63" s="5">
-        <f t="shared" si="0"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D63" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B64" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
       </c>
-      <c r="D64" s="5">
-        <f t="shared" si="0"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D64" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B65" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
       </c>
-      <c r="D65" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B66" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
       </c>
-      <c r="D66" s="5">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D66" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B67" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
       </c>
-      <c r="D67" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D67" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B68" s="2">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" ref="D68:D91" si="1">C68/B68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="2">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="2">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="2">
+        <v>11</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="2">
+        <v>16</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="2">
+        <v>10</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="2">
+        <v>9</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="2">
         <v>8</v>
       </c>
-      <c r="C68" s="2">
-        <v>0</v>
-      </c>
-      <c r="D68" s="5">
-        <f t="shared" ref="D68" si="1">C68/B68</f>
-        <v>0</v>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="2">
+        <v>16</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="2">
+        <v>12</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="2">
+        <v>13</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="2">
+        <v>12</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="2">
+        <v>9</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="2">
+        <v>7</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2">
+        <v>8</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="2">
+        <v>14</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
+      <c r="D84" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="2">
+        <v>9</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="2">
+        <v>11</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="2">
+        <v>11</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+      <c r="D87" s="3">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="2">
+        <v>9</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="2">
+        <v>7</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="2">
+        <v>8</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="2">
+        <v>14</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1</v>
+      </c>
+      <c r="D91" s="3">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Kabul flights.xlsx
+++ b/codeLibrary/R/R/airlineData/Kabul flights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AB865A-2BC5-154F-8EC4-7F7578C02745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7692AE15-AEE4-AD43-A14D-858B26BDF421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Chart</t>
   </si>
@@ -310,6 +310,66 @@
   </si>
   <si>
     <t>2021-10-25</t>
+  </si>
+  <si>
+    <t>2021-10-26</t>
+  </si>
+  <si>
+    <t>2021-10-27</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
+  </si>
+  <si>
+    <t>2021-10-29</t>
+  </si>
+  <si>
+    <t>2021-10-30</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-11-02</t>
+  </si>
+  <si>
+    <t>2021-11-03</t>
+  </si>
+  <si>
+    <t>2021-11-04</t>
+  </si>
+  <si>
+    <t>2021-11-05</t>
+  </si>
+  <si>
+    <t>2021-11-06</t>
+  </si>
+  <si>
+    <t>2021-11-07</t>
+  </si>
+  <si>
+    <t>2021-11-08</t>
+  </si>
+  <si>
+    <t>2021-11-09</t>
+  </si>
+  <si>
+    <t>2021-11-10</t>
+  </si>
+  <si>
+    <t>2021-11-11</t>
+  </si>
+  <si>
+    <t>2021-11-12</t>
+  </si>
+  <si>
+    <t>2021-11-13</t>
+  </si>
+  <si>
+    <t>2021-11-14</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91:D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2200,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="3">
-        <f t="shared" ref="D68:D91" si="1">C68/B68</f>
+        <f t="shared" ref="D68:D111" si="1">C68/B68</f>
         <v>0</v>
       </c>
     </row>
@@ -2547,6 +2607,306 @@
       <c r="D91" s="3">
         <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="2">
+        <v>9</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="2">
+        <v>11</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2</v>
+      </c>
+      <c r="D93" s="3">
+        <f t="shared" si="1"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="2">
+        <v>10</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="2">
+        <v>8</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="2">
+        <v>7</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="2">
+        <v>9</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1</v>
+      </c>
+      <c r="D97" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="2">
+        <v>16</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="2">
+        <v>12</v>
+      </c>
+      <c r="C99" s="2">
+        <v>2</v>
+      </c>
+      <c r="D99" s="3">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="2">
+        <v>13</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="2">
+        <v>13</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2</v>
+      </c>
+      <c r="D101" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="2">
+        <v>9</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="2">
+        <v>7</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="2">
+        <v>10</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="2">
+        <v>14</v>
+      </c>
+      <c r="C105" s="2">
+        <v>2</v>
+      </c>
+      <c r="D105" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="2">
+        <v>12</v>
+      </c>
+      <c r="C106" s="2">
+        <v>2</v>
+      </c>
+      <c r="D106" s="3">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="2">
+        <v>12</v>
+      </c>
+      <c r="C107" s="2">
+        <v>2</v>
+      </c>
+      <c r="D107" s="3">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="2">
+        <v>15</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0</v>
+      </c>
+      <c r="D108" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2">
+        <v>11</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0</v>
+      </c>
+      <c r="D109" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="2">
+        <v>11</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0</v>
+      </c>
+      <c r="D110" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="2">
+        <v>13</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2</v>
+      </c>
+      <c r="D111" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615385</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Kabul flights.xlsx
+++ b/codeLibrary/R/R/airlineData/Kabul flights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7692AE15-AEE4-AD43-A14D-858B26BDF421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCBAA0B-9639-6347-A88A-C831C039A890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="-19560" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Chart</t>
   </si>
@@ -370,6 +370,75 @@
   </si>
   <si>
     <t>2021-11-14</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
+    <t>2021-11-17</t>
+  </si>
+  <si>
+    <t>2021-11-18</t>
+  </si>
+  <si>
+    <t>2021-11-19</t>
+  </si>
+  <si>
+    <t>2021-11-20</t>
+  </si>
+  <si>
+    <t>2021-11-21</t>
+  </si>
+  <si>
+    <t>2021-11-22</t>
+  </si>
+  <si>
+    <t>2021-11-23</t>
+  </si>
+  <si>
+    <t>2021-11-24</t>
+  </si>
+  <si>
+    <t>2021-11-25</t>
+  </si>
+  <si>
+    <t>2021-11-26</t>
+  </si>
+  <si>
+    <t>2021-11-27</t>
+  </si>
+  <si>
+    <t>2021-11-28</t>
+  </si>
+  <si>
+    <t>2021-11-29</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-11-31</t>
+  </si>
+  <si>
+    <t>2021-11-32</t>
+  </si>
+  <si>
+    <t>2021-11-33</t>
+  </si>
+  <si>
+    <t>2021-11-34</t>
+  </si>
+  <si>
+    <t>2021-11-35</t>
+  </si>
+  <si>
+    <t>2021-11-36</t>
+  </si>
+  <si>
+    <t>2021-11-37</t>
   </si>
 </sst>
 </file>
@@ -1244,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91:D111"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2260,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="3">
-        <f t="shared" ref="D68:D111" si="1">C68/B68</f>
+        <f t="shared" ref="D68:D131" si="1">C68/B68</f>
         <v>0</v>
       </c>
     </row>
@@ -2907,6 +2976,351 @@
       <c r="D111" s="3">
         <f t="shared" si="1"/>
         <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="2">
+        <v>17</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2</v>
+      </c>
+      <c r="D112" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="2">
+        <v>13</v>
+      </c>
+      <c r="C113" s="2">
+        <v>2</v>
+      </c>
+      <c r="D113" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="2">
+        <v>13</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2</v>
+      </c>
+      <c r="D114" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="2">
+        <v>14</v>
+      </c>
+      <c r="C115" s="2">
+        <v>3</v>
+      </c>
+      <c r="D115" s="3">
+        <f t="shared" si="1"/>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="2">
+        <v>10</v>
+      </c>
+      <c r="C116" s="2">
+        <v>1</v>
+      </c>
+      <c r="D116" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="2">
+        <v>9</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1</v>
+      </c>
+      <c r="D117" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="2">
+        <v>12</v>
+      </c>
+      <c r="C118" s="2">
+        <v>3</v>
+      </c>
+      <c r="D118" s="3">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="2">
+        <v>19</v>
+      </c>
+      <c r="C119" s="2">
+        <v>4</v>
+      </c>
+      <c r="D119" s="3">
+        <f t="shared" si="1"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="2">
+        <v>13</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1</v>
+      </c>
+      <c r="D120" s="3">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="2">
+        <v>12</v>
+      </c>
+      <c r="C121" s="2">
+        <v>2</v>
+      </c>
+      <c r="D121" s="3">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="2">
+        <v>15</v>
+      </c>
+      <c r="C122" s="2">
+        <v>3</v>
+      </c>
+      <c r="D122" s="3">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="2">
+        <v>9</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
+      <c r="D123" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="2">
+        <v>8</v>
+      </c>
+      <c r="C124" s="2">
+        <v>2</v>
+      </c>
+      <c r="D124" s="3">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="2">
+        <v>10</v>
+      </c>
+      <c r="C125" s="2">
+        <v>2</v>
+      </c>
+      <c r="D125" s="3">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="2">
+        <v>19</v>
+      </c>
+      <c r="C126" s="2">
+        <v>4</v>
+      </c>
+      <c r="D126" s="3">
+        <f t="shared" si="1"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="2">
+        <v>10</v>
+      </c>
+      <c r="C127" s="2">
+        <v>1</v>
+      </c>
+      <c r="D127" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="2">
+        <v>13</v>
+      </c>
+      <c r="C128" s="2">
+        <v>4</v>
+      </c>
+      <c r="D128" s="3">
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" s="2">
+        <v>17</v>
+      </c>
+      <c r="C129" s="2">
+        <v>4</v>
+      </c>
+      <c r="D129" s="3">
+        <f t="shared" si="1"/>
+        <v>0.23529411764705882</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="2">
+        <v>11</v>
+      </c>
+      <c r="C130" s="2">
+        <v>2</v>
+      </c>
+      <c r="D130" s="3">
+        <f t="shared" si="1"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="2">
+        <v>11</v>
+      </c>
+      <c r="C131" s="2">
+        <v>4</v>
+      </c>
+      <c r="D131" s="3">
+        <f t="shared" si="1"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="2">
+        <v>16</v>
+      </c>
+      <c r="C132" s="2">
+        <v>2</v>
+      </c>
+      <c r="D132" s="3">
+        <f t="shared" ref="D132:D134" si="2">C132/B132</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" s="2">
+        <v>21</v>
+      </c>
+      <c r="C133" s="2">
+        <v>5</v>
+      </c>
+      <c r="D133" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="2">
+        <v>13</v>
+      </c>
+      <c r="C134" s="2">
+        <v>3</v>
+      </c>
+      <c r="D134" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Kabul flights.xlsx
+++ b/codeLibrary/R/R/airlineData/Kabul flights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCBAA0B-9639-6347-A88A-C831C039A890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D8F559-55C9-6140-8F14-324B1E775DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="-19560" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5780" yWindow="-24760" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Chart</t>
   </si>
@@ -420,25 +420,49 @@
     <t>2021-11-30</t>
   </si>
   <si>
-    <t>2021-11-31</t>
-  </si>
-  <si>
-    <t>2021-11-32</t>
-  </si>
-  <si>
-    <t>2021-11-33</t>
-  </si>
-  <si>
-    <t>2021-11-34</t>
-  </si>
-  <si>
-    <t>2021-11-35</t>
-  </si>
-  <si>
-    <t>2021-11-36</t>
-  </si>
-  <si>
-    <t>2021-11-37</t>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2021-12-02</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
+  </si>
+  <si>
+    <t>2021-12-04</t>
+  </si>
+  <si>
+    <t>2021-12-05</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2021-12-07</t>
+  </si>
+  <si>
+    <t>2021-12-08</t>
+  </si>
+  <si>
+    <t>2021-12-09</t>
+  </si>
+  <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
+    <t>2021-12-11</t>
+  </si>
+  <si>
+    <t>2021-12-12</t>
+  </si>
+  <si>
+    <t>2021-12-13</t>
+  </si>
+  <si>
+    <t>2021-12-14</t>
+  </si>
+  <si>
+    <t>2021-12-15</t>
   </si>
 </sst>
 </file>
@@ -1313,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3289,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="3">
-        <f t="shared" ref="D132:D134" si="2">C132/B132</f>
+        <f t="shared" ref="D132:D142" si="2">C132/B132</f>
         <v>0.125</v>
       </c>
     </row>
@@ -3321,6 +3345,126 @@
       <c r="D134" s="3">
         <f t="shared" si="2"/>
         <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="2">
+        <v>14</v>
+      </c>
+      <c r="C135" s="2">
+        <v>4</v>
+      </c>
+      <c r="D135" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="2">
+        <v>17</v>
+      </c>
+      <c r="C136" s="2">
+        <v>5</v>
+      </c>
+      <c r="D136" s="3">
+        <f t="shared" si="2"/>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="2">
+        <v>11</v>
+      </c>
+      <c r="C137" s="2">
+        <v>1</v>
+      </c>
+      <c r="D137" s="3">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="2">
+        <v>10</v>
+      </c>
+      <c r="C138" s="2">
+        <v>4</v>
+      </c>
+      <c r="D138" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="2">
+        <v>14</v>
+      </c>
+      <c r="C139" s="2">
+        <v>3</v>
+      </c>
+      <c r="D139" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="2">
+        <v>19</v>
+      </c>
+      <c r="C140" s="2">
+        <v>5</v>
+      </c>
+      <c r="D140" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="2">
+        <v>15</v>
+      </c>
+      <c r="C141" s="2">
+        <v>3</v>
+      </c>
+      <c r="D141" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" s="2">
+        <v>13</v>
+      </c>
+      <c r="C142" s="2">
+        <v>2</v>
+      </c>
+      <c r="D142" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15384615384615385</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Kabul flights.xlsx
+++ b/codeLibrary/R/R/airlineData/Kabul flights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D8F559-55C9-6140-8F14-324B1E775DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2210B443-18DF-D842-88FA-686392320C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5780" yWindow="-24760" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Chart</t>
   </si>
@@ -463,6 +463,33 @@
   </si>
   <si>
     <t>2021-12-15</t>
+  </si>
+  <si>
+    <t>2021-12-16</t>
+  </si>
+  <si>
+    <t>2021-12-17</t>
+  </si>
+  <si>
+    <t>2021-12-18</t>
+  </si>
+  <si>
+    <t>2021-12-19</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>2021-12-21</t>
+  </si>
+  <si>
+    <t>2021-12-22</t>
+  </si>
+  <si>
+    <t>2021-12-23</t>
+  </si>
+  <si>
+    <t>2021-12-24</t>
   </si>
 </sst>
 </file>
@@ -1337,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="I140" sqref="I140"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="Q128" sqref="Q128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3157,14 +3184,14 @@
         <v>123</v>
       </c>
       <c r="B122" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C122" s="2">
         <v>3</v>
       </c>
       <c r="D122" s="3">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -3172,7 +3199,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -3187,14 +3214,14 @@
         <v>125</v>
       </c>
       <c r="B124" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" s="2">
         <v>2</v>
       </c>
       <c r="D124" s="3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -3202,14 +3229,14 @@
         <v>126</v>
       </c>
       <c r="B125" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C125" s="2">
         <v>2</v>
       </c>
       <c r="D125" s="3">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3217,14 +3244,14 @@
         <v>127</v>
       </c>
       <c r="B126" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C126" s="2">
         <v>4</v>
       </c>
       <c r="D126" s="3">
         <f t="shared" si="1"/>
-        <v>0.21052631578947367</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3232,14 +3259,14 @@
         <v>128</v>
       </c>
       <c r="B127" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C127" s="2">
         <v>1</v>
       </c>
       <c r="D127" s="3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3313,7 +3340,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="3">
-        <f t="shared" ref="D132:D142" si="2">C132/B132</f>
+        <f t="shared" ref="D132:D151" si="2">C132/B132</f>
         <v>0.125</v>
       </c>
     </row>
@@ -3465,6 +3492,141 @@
       <c r="D142" s="3">
         <f t="shared" si="2"/>
         <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" s="2">
+        <v>17</v>
+      </c>
+      <c r="C143" s="2">
+        <v>4</v>
+      </c>
+      <c r="D143" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23529411764705882</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="2">
+        <v>11</v>
+      </c>
+      <c r="C144" s="2">
+        <v>3</v>
+      </c>
+      <c r="D144" s="3">
+        <f t="shared" si="2"/>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" s="2">
+        <v>10</v>
+      </c>
+      <c r="C145" s="2">
+        <v>5</v>
+      </c>
+      <c r="D145" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" s="2">
+        <v>13</v>
+      </c>
+      <c r="C146" s="2">
+        <v>3</v>
+      </c>
+      <c r="D146" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" s="2">
+        <v>19</v>
+      </c>
+      <c r="C147" s="2">
+        <v>5</v>
+      </c>
+      <c r="D147" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" s="2">
+        <v>14</v>
+      </c>
+      <c r="C148" s="2">
+        <v>4</v>
+      </c>
+      <c r="D148" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="2">
+        <v>13</v>
+      </c>
+      <c r="C149" s="2">
+        <v>3</v>
+      </c>
+      <c r="D149" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" s="2">
+        <v>18</v>
+      </c>
+      <c r="C150" s="2">
+        <v>2</v>
+      </c>
+      <c r="D150" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="2">
+        <v>10</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1</v>
+      </c>
+      <c r="D151" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Kabul flights.xlsx
+++ b/codeLibrary/R/R/airlineData/Kabul flights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2210B443-18DF-D842-88FA-686392320C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D511CCB6-B543-8041-B122-39948B332841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="3100" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>Chart</t>
   </si>
@@ -490,6 +490,27 @@
   </si>
   <si>
     <t>2021-12-24</t>
+  </si>
+  <si>
+    <t>2021-12-25</t>
+  </si>
+  <si>
+    <t>2021-12-26</t>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
+    <t>2021-12-28</t>
+  </si>
+  <si>
+    <t>2021-12-29</t>
+  </si>
+  <si>
+    <t>2021-12-30</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
   </si>
 </sst>
 </file>
@@ -1364,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="Q128" sqref="Q128"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="J161" sqref="J161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3289,14 +3310,14 @@
         <v>130</v>
       </c>
       <c r="B129" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C129" s="2">
         <v>4</v>
       </c>
       <c r="D129" s="3">
         <f t="shared" si="1"/>
-        <v>0.23529411764705882</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3304,14 +3325,14 @@
         <v>131</v>
       </c>
       <c r="B130" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C130" s="2">
         <v>2</v>
       </c>
       <c r="D130" s="3">
         <f t="shared" si="1"/>
-        <v>0.18181818181818182</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3319,14 +3340,14 @@
         <v>132</v>
       </c>
       <c r="B131" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C131" s="2">
         <v>4</v>
       </c>
       <c r="D131" s="3">
         <f t="shared" si="1"/>
-        <v>0.36363636363636365</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3334,14 +3355,14 @@
         <v>133</v>
       </c>
       <c r="B132" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C132" s="2">
         <v>2</v>
       </c>
       <c r="D132" s="3">
-        <f t="shared" ref="D132:D151" si="2">C132/B132</f>
-        <v>0.125</v>
+        <f t="shared" ref="D132:D158" si="2">C132/B132</f>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3349,14 +3370,14 @@
         <v>134</v>
       </c>
       <c r="B133" s="2">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C133" s="2">
         <v>5</v>
       </c>
       <c r="D133" s="3">
         <f t="shared" si="2"/>
-        <v>0.23809523809523808</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3364,14 +3385,14 @@
         <v>135</v>
       </c>
       <c r="B134" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C134" s="2">
         <v>3</v>
       </c>
       <c r="D134" s="3">
         <f t="shared" si="2"/>
-        <v>0.23076923076923078</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -3627,6 +3648,111 @@
       <c r="D151" s="3">
         <f t="shared" si="2"/>
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" s="2">
+        <v>10</v>
+      </c>
+      <c r="C152" s="2">
+        <v>3</v>
+      </c>
+      <c r="D152" s="3">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="2">
+        <v>13</v>
+      </c>
+      <c r="C153" s="2">
+        <v>2</v>
+      </c>
+      <c r="D153" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="2">
+        <v>18</v>
+      </c>
+      <c r="C154" s="2">
+        <v>3</v>
+      </c>
+      <c r="D154" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" s="2">
+        <v>15</v>
+      </c>
+      <c r="C155" s="2">
+        <v>2</v>
+      </c>
+      <c r="D155" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" s="2">
+        <v>13</v>
+      </c>
+      <c r="C156" s="2">
+        <v>3</v>
+      </c>
+      <c r="D156" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" s="2">
+        <v>16</v>
+      </c>
+      <c r="C157" s="2">
+        <v>2</v>
+      </c>
+      <c r="D157" s="3">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" s="2">
+        <v>9</v>
+      </c>
+      <c r="C158" s="2">
+        <v>1</v>
+      </c>
+      <c r="D158" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Kabul flights.xlsx
+++ b/codeLibrary/R/R/airlineData/Kabul flights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D511CCB6-B543-8041-B122-39948B332841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6093F13-1C4D-EC43-B979-5ECCD24569D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="3100" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>Chart</t>
   </si>
@@ -511,6 +511,102 @@
   </si>
   <si>
     <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-01-04</t>
+  </si>
+  <si>
+    <t>2022-01-05</t>
+  </si>
+  <si>
+    <t>2022-01-06</t>
+  </si>
+  <si>
+    <t>2022-01-07</t>
+  </si>
+  <si>
+    <t>2022-01-08</t>
+  </si>
+  <si>
+    <t>2022-01-09</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-01-11</t>
+  </si>
+  <si>
+    <t>2022-01-12</t>
+  </si>
+  <si>
+    <t>2022-01-13</t>
+  </si>
+  <si>
+    <t>2022-01-14</t>
+  </si>
+  <si>
+    <t>2022-01-15</t>
+  </si>
+  <si>
+    <t>2022-01-16</t>
+  </si>
+  <si>
+    <t>2022-01-17</t>
+  </si>
+  <si>
+    <t>2022-01-18</t>
+  </si>
+  <si>
+    <t>2022-01-19</t>
+  </si>
+  <si>
+    <t>2022-01-20</t>
+  </si>
+  <si>
+    <t>2022-01-21</t>
+  </si>
+  <si>
+    <t>2022-01-22</t>
+  </si>
+  <si>
+    <t>2022-01-23</t>
+  </si>
+  <si>
+    <t>2022-01-24</t>
+  </si>
+  <si>
+    <t>2022-01-25</t>
+  </si>
+  <si>
+    <t>2022-01-26</t>
+  </si>
+  <si>
+    <t>2022-01-27</t>
+  </si>
+  <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
+    <t>2022-01-29</t>
+  </si>
+  <si>
+    <t>2022-01-30</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-01-02</t>
   </si>
 </sst>
 </file>
@@ -1385,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="J161" sqref="J161"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3361,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="3">
-        <f t="shared" ref="D132:D158" si="2">C132/B132</f>
+        <f t="shared" ref="D132:D190" si="2">C132/B132</f>
         <v>0.22222222222222221</v>
       </c>
     </row>
@@ -3753,6 +3849,474 @@
       <c r="D158" s="3">
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D159" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D160" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2">
+        <v>3</v>
+      </c>
+      <c r="C161" s="2">
+        <v>2</v>
+      </c>
+      <c r="D161" s="3">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2">
+        <v>6</v>
+      </c>
+      <c r="C162" s="2">
+        <v>0</v>
+      </c>
+      <c r="D162" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2">
+        <v>10</v>
+      </c>
+      <c r="C163" s="2">
+        <v>4</v>
+      </c>
+      <c r="D163" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2">
+        <v>10</v>
+      </c>
+      <c r="C164" s="2">
+        <v>4</v>
+      </c>
+      <c r="D164" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2">
+        <v>5</v>
+      </c>
+      <c r="C165" s="2">
+        <v>1</v>
+      </c>
+      <c r="D165" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2">
+        <v>7</v>
+      </c>
+      <c r="C166" s="2">
+        <v>3</v>
+      </c>
+      <c r="D166" s="3">
+        <f t="shared" si="2"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2">
+        <v>11</v>
+      </c>
+      <c r="C167" s="2">
+        <v>1</v>
+      </c>
+      <c r="D167" s="3">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2">
+        <v>17</v>
+      </c>
+      <c r="C168" s="2">
+        <v>3</v>
+      </c>
+      <c r="D168" s="3">
+        <f t="shared" si="2"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2">
+        <v>12</v>
+      </c>
+      <c r="C169" s="2">
+        <v>3</v>
+      </c>
+      <c r="D169" s="3">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2">
+        <v>12</v>
+      </c>
+      <c r="C170" s="2">
+        <v>4</v>
+      </c>
+      <c r="D170" s="3">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2">
+        <v>14</v>
+      </c>
+      <c r="C171" s="2">
+        <v>4</v>
+      </c>
+      <c r="D171" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2">
+        <v>8</v>
+      </c>
+      <c r="C172" s="2">
+        <v>1</v>
+      </c>
+      <c r="D172" s="3">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2">
+        <v>8</v>
+      </c>
+      <c r="C173" s="2">
+        <v>3</v>
+      </c>
+      <c r="D173" s="3">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2">
+        <v>11</v>
+      </c>
+      <c r="C174" s="2">
+        <v>3</v>
+      </c>
+      <c r="D174" s="3">
+        <f t="shared" si="2"/>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2">
+        <v>16</v>
+      </c>
+      <c r="C175" s="2">
+        <v>3</v>
+      </c>
+      <c r="D175" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2">
+        <v>12</v>
+      </c>
+      <c r="C176" s="2">
+        <v>3</v>
+      </c>
+      <c r="D176" s="3">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2">
+        <v>11</v>
+      </c>
+      <c r="C177" s="2">
+        <v>3</v>
+      </c>
+      <c r="D177" s="3">
+        <f t="shared" si="2"/>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2">
+        <v>15</v>
+      </c>
+      <c r="C178" s="2">
+        <v>3</v>
+      </c>
+      <c r="D178" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2">
+        <v>8</v>
+      </c>
+      <c r="C179" s="2">
+        <v>0</v>
+      </c>
+      <c r="D179" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2">
+        <v>8</v>
+      </c>
+      <c r="C180" s="2">
+        <v>2</v>
+      </c>
+      <c r="D180" s="3">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2">
+        <v>11</v>
+      </c>
+      <c r="C181" s="2">
+        <v>1</v>
+      </c>
+      <c r="D181" s="3">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2">
+        <v>17</v>
+      </c>
+      <c r="C182" s="2">
+        <v>2</v>
+      </c>
+      <c r="D182" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2">
+        <v>12</v>
+      </c>
+      <c r="C183" s="2">
+        <v>3</v>
+      </c>
+      <c r="D183" s="3">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2">
+        <v>13</v>
+      </c>
+      <c r="C184" s="2">
+        <v>3</v>
+      </c>
+      <c r="D184" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2">
+        <v>14</v>
+      </c>
+      <c r="C185" s="2">
+        <v>2</v>
+      </c>
+      <c r="D185" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2">
+        <v>8</v>
+      </c>
+      <c r="C186" s="2">
+        <v>2</v>
+      </c>
+      <c r="D186" s="3">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2">
+        <v>8</v>
+      </c>
+      <c r="C187" s="2">
+        <v>1</v>
+      </c>
+      <c r="D187" s="3">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2">
+        <v>13</v>
+      </c>
+      <c r="C188" s="2">
+        <v>3</v>
+      </c>
+      <c r="D188" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2">
+        <v>16</v>
+      </c>
+      <c r="C189" s="2">
+        <v>2</v>
+      </c>
+      <c r="D189" s="3">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2">
+        <v>13</v>
+      </c>
+      <c r="C190" s="2">
+        <v>1</v>
+      </c>
+      <c r="D190" s="3">
+        <f t="shared" si="2"/>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
   </sheetData>
